--- a/artfynd/A 10040-2020.xlsx
+++ b/artfynd/A 10040-2020.xlsx
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>358736.9603329875</v>
+        <v>358737</v>
       </c>
       <c r="R2" t="n">
-        <v>6573548.835087359</v>
+        <v>6573549</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
